--- a/모티브 프로젝트_DOCS/한림_대시보드_API&DB 명세서_250724.xlsx
+++ b/모티브 프로젝트_DOCS/한림_대시보드_API&DB 명세서_250724.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aichemist_3\Desktop\Local\13.motivr_project\모티브 프로젝트_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2ABB3-32E5-4277-8BED-CC82642C674F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B65FE4-BEE5-4BCD-8AE3-937D32F9C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SensorInfo" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="576">
   <si>
     <t>1. 테이블명  : SenSorInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -961,61 +961,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임스탬프 (yyyy-mm-dd ss:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 (정보,주의,경고, 점검 중 택1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메세지 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"센서 오류"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/api/alarms	</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근 알람 리스트 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"id": 1, "timestamp": "2025-07-08 10:30:00", "level": "주의", "message": "배터리 경고"}]</t>
   </si>
   <si>
-    <t>최대 1000건 , 최신 순 정렬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알람 수동 등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	JSON Body: { "timestamp": "...", "level": "...", "message":</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{ "message": "알람 등록 완료" }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1025,55 +977,11 @@
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알람 일괄 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON 배열: [{ "id": 1, "timestamp": "...", "level": "...", "message": "..." }]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "message": "알람 수정 완료" }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러 알람 항목 수정 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/alarms/delete</t>
-  </si>
-  <si>
-    <t>알람 일괄 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON Body: { "ids": [1, 2, 3] }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "message": "알람 삭제 완료" }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id 기준으로 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">빨간색 글자가 장치정보에 등록한 내용, 주황색 표시된 부분은 센서로 부터 수신된 정보
 초록색은 주황색 수집된 데이터를 가공한 정보 </t>
-  </si>
-  <si>
-    <t>정보(변위) - 0x02</t>
-  </si>
-  <si>
-    <t>정보(GPS) - 0x05</t>
-  </si>
-  <si>
-    <t>주의 - 0x43</t>
   </si>
   <si>
     <r>
@@ -1142,9 +1050,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>경고 - 0x44</t>
   </si>
   <si>
     <r>
@@ -2847,12 +2752,519 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AlarmHistory 테이블 개편 250724</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 RawSenSorData 정보를 알람용으로 정제해서 저장 및 관리하는 테이블 , CCTV 로그도 포함되며 Type으로 cctv | iot 로 구분한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스명 , iot의 경우 label과 rid를 조합 , cctv는 device id 그대로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보(변위) - 0x02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">타임스탬프 (yyyy-mm-dd ss:ss)  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보(GPS) - 0x05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의 - 0x43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 - 0x44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">iot의 경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 0x02값 정보(변위) 을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 저장,
+  0x05값인 정보(GPS)를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 저장,
+   0x43값인 주의를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 저장,
+ 0x44값인 경고를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 저장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cctv의 경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cctv테이블의 isconnected 0 ,1 값에 따라
+각각 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 저장</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 메세지 저장  (접두어는 서버에서 자동으로 ${DeviceId } 값을 붙여준다.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치(추진구, 도달구 등의 라벨명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 타입 (iot ? cctv?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-04 15:00:00.000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(iot이면) 추진구3층 #S1_001, (cctv이면) cam1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label_S1_005 #S1_005 : 정상 로그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추진구3층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/alarmhistory/iot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/alarmhistory/cctv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	api/alarmhistory/iot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api	/alarmhistory/cctv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/alarmhistory/cctvlog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/alarmhistory/cctv/latest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/alarmhistory/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	api/alarmhistory/delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	IoT 알람 목록 조회 (최근 100건)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV 알람 목록 조회 (최근 100건)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	IoT 알람 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV 알람 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV 상태 로그 자동 기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV 장치별 최신 알람 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	DeviceID, Label, Timestamp, Event, Log, Latitude, Longitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	DeviceID, Timestamp, Event, Log, Location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camId, isConnected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	배열 형태: [ { Id, Timestamp, Event, Log } ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ ids: [Id1, Id2, ...] }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	{ data: [...] }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ data: [...] }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ message: 'IoT 알람 추가 완료' }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ message: '알람 수정 완료' }</t>
+  </si>
+  <si>
+    <t>{ message: 'CCTV 알람 추가 완료' }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ message: 'CCTV 알람 저장 완료' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	{ message: '알람 삭제 완료' }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Type='iot' 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type='cctv' 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeviceID = Label #DeviceID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Location = Label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Type = iot</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Latitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Longitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">는 null, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Type = cctv</t>
+    </r>
+  </si>
+  <si>
+    <t>isConnected = true → 점검필요, false → 정상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 DeviceID별 Timestamp 최신값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 필드만 수정 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 삭제 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3062,6 +3474,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3082,7 +3502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3138,6 +3558,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3146,7 +3592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3272,6 +3718,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -3700,7 +4162,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3906764</xdr:colOff>
+      <xdr:colOff>973064</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38394</xdr:rowOff>
     </xdr:to>
@@ -3743,8 +4205,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>19417</xdr:rowOff>
     </xdr:to>
@@ -4605,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4820,7 +5282,7 @@
         <v>84</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4857,10 +5319,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -4888,19 +5350,19 @@
         <v>184</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4908,17 +5370,17 @@
         <v>110</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="33" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4928,7 +5390,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="33"/>
       <c r="F7" s="41" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5013,13 +5475,13 @@
     </row>
     <row r="20" spans="1:6" ht="26.25">
       <c r="A20" s="7" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5051,7 +5513,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5089,10 +5551,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -5135,7 +5597,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>130</v>
@@ -5144,18 +5606,18 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>126</v>
@@ -5164,27 +5626,27 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="E8" s="37">
         <v>45734.291666666664</v>
@@ -5193,16 +5655,16 @@
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E9" s="37">
         <v>45734.291666666664</v>
@@ -5211,7 +5673,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>151</v>
@@ -5220,13 +5682,13 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="E10" s="37">
         <v>45734.291666666664</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5315,14 +5777,14 @@
         <v>110</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="27" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="F24" s="13"/>
     </row>
@@ -5331,34 +5793,34 @@
         <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="F26" s="13"/>
     </row>
@@ -5367,16 +5829,16 @@
         <v>184</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -5385,16 +5847,16 @@
         <v>184</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -5458,7 +5920,7 @@
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5496,10 +5958,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -5542,7 +6004,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>130</v>
@@ -5551,16 +6013,16 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>130</v>
@@ -5569,13 +6031,13 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5589,16 +6051,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>130</v>
@@ -5607,16 +6069,16 @@
         <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>130</v>
@@ -5625,16 +6087,16 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -5643,16 +6105,16 @@
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>130</v>
@@ -5661,16 +6123,16 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>130</v>
@@ -5679,16 +6141,16 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>130</v>
@@ -5697,16 +6159,16 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>130</v>
@@ -5715,18 +6177,18 @@
         <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>151</v>
@@ -5735,14 +6197,14 @@
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>151</v>
@@ -5751,14 +6213,14 @@
         <v>20</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="57" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>130</v>
@@ -5767,13 +6229,13 @@
         <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25">
@@ -5786,7 +6248,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -5806,16 +6268,16 @@
         <v>110</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="F24" s="13"/>
     </row>
@@ -5824,16 +6286,16 @@
         <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -5842,16 +6304,16 @@
         <v>184</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="E26" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="F26" s="13"/>
     </row>
@@ -5860,16 +6322,16 @@
         <v>184</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -5878,16 +6340,16 @@
         <v>110</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -5896,16 +6358,16 @@
         <v>184</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -5914,16 +6376,16 @@
         <v>184</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="F30" s="10"/>
     </row>
@@ -5932,16 +6394,16 @@
         <v>110</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="E31" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5950,16 +6412,16 @@
         <v>184</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="F32" s="10"/>
     </row>
@@ -5968,14 +6430,14 @@
         <v>110</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="8" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -5999,7 +6461,7 @@
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6016,8 +6478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6103,7 +6565,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="55" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>130</v>
@@ -6112,13 +6574,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6330,7 +6792,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>20</v>
@@ -6338,8 +6800,8 @@
       <c r="D20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>37</v>
+      <c r="E20" s="58" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26.25">
@@ -6402,7 +6864,7 @@
         <v>84</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7122,22 +7584,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5897ED95-CABE-4C17-B286-3547624EDC14}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="51.625" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
     <col min="4" max="4" width="51.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2"/>
+      <c r="A1" s="54" t="s">
+        <v>517</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7146,9 +7610,11 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B2" s="56"/>
+        <v>514</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>518</v>
+      </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
@@ -7176,7 +7642,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>126</v>
@@ -7194,41 +7660,43 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>202</v>
+        <v>519</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="33"/>
+        <v>130</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>204</v>
+        <v>520</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>20</v>
+        <v>151</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>206</v>
+        <v>525</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>535</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="165">
       <c r="A8" s="6" t="s">
-        <v>207</v>
+        <v>521</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>130</v>
@@ -7236,52 +7704,102 @@
       <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>209</v>
+      <c r="D8" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>202</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>537</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="33"/>
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>539</v>
+      </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" s="34">
+        <v>37.47</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="35"/>
+      <c r="A12" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E12" s="35">
+        <v>126.9</v>
+      </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>538</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
@@ -7346,110 +7864,160 @@
         <v>110</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" t="s">
-        <v>212</v>
+        <v>548</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>561</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>213</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="33">
-      <c r="A26" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="B26" s="8" t="s">
-        <v>210</v>
+        <v>542</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>219</v>
+        <v>550</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>222</v>
+        <v>556</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>223</v>
+      <c r="B27" s="10" t="s">
+        <v>543</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>224</v>
+        <v>551</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>227</v>
+        <v>557</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E28" t="s">
+        <v>566</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E30" t="s">
+        <v>564</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
@@ -7487,39 +8055,39 @@
     </row>
     <row r="61" spans="5:6" ht="49.5">
       <c r="F61" s="31" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="5:6">
       <c r="E62" t="s">
-        <v>229</v>
+        <v>524</v>
       </c>
       <c r="F62" s="53" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" spans="5:6">
       <c r="E63" t="s">
-        <v>230</v>
+        <v>526</v>
       </c>
       <c r="F63" s="53" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="5:6">
       <c r="E64" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F64" s="52" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="5:6">
       <c r="E65" t="s">
-        <v>233</v>
+        <v>528</v>
       </c>
       <c r="F65" s="52" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="5:6">
@@ -7565,10 +8133,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -7611,7 +8179,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>130</v>
@@ -7620,25 +8188,25 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="E7" s="36">
         <v>45820</v>
@@ -7647,16 +8215,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E8" s="36">
         <v>45833</v>
@@ -7665,7 +8233,7 @@
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>126</v>
@@ -7674,13 +8242,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="E9" s="33">
         <v>75</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7777,37 +8345,37 @@
         <v>110</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
       <c r="A25" s="8" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7894,7 +8462,7 @@
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7932,10 +8500,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -7978,7 +8546,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>130</v>
@@ -7987,18 +8555,18 @@
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>130</v>
@@ -8007,18 +8575,18 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>130</v>
@@ -8027,16 +8595,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>130</v>
@@ -8045,16 +8613,16 @@
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>130</v>
@@ -8063,10 +8631,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F10" s="33"/>
     </row>
@@ -8081,16 +8649,16 @@
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>151</v>
@@ -8099,7 +8667,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E12" s="37">
         <v>45839</v>
@@ -8108,7 +8676,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>151</v>
@@ -8117,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="E13" s="37">
         <v>45869</v>
@@ -8126,7 +8694,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>144</v>
@@ -8135,7 +8703,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="E14" s="33">
         <v>36.139012000000001</v>
@@ -8144,7 +8712,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>144</v>
@@ -8153,7 +8721,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="E15" s="34">
         <v>128.12578099999999</v>
@@ -8162,7 +8730,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>151</v>
@@ -8171,13 +8739,13 @@
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="E16" s="37">
         <v>45838</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8218,17 +8786,17 @@
         <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="214.5">
@@ -8236,19 +8804,19 @@
         <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8335,7 +8903,7 @@
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -8373,10 +8941,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -8419,7 +8987,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>151</v>
@@ -8428,7 +8996,7 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="E6" s="37">
         <v>45734.291666666664</v>
@@ -8437,7 +9005,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>130</v>
@@ -8446,10 +9014,10 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="F7" s="33"/>
     </row>
@@ -8563,19 +9131,19 @@
         <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
@@ -8583,39 +9151,39 @@
         <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33">
       <c r="A26" s="8" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
@@ -8623,19 +9191,19 @@
         <v>184</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33">
@@ -8643,19 +9211,19 @@
         <v>184</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8718,7 +9286,7 @@
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -8756,10 +9324,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -8802,7 +9370,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>130</v>
@@ -8811,16 +9379,16 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>130</v>
@@ -8829,18 +9397,18 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>151</v>
@@ -8849,7 +9417,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="E8" s="37">
         <v>45734.291666666664</v>
@@ -8958,19 +9526,19 @@
         <v>184</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8978,17 +9546,17 @@
         <v>110</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8996,17 +9564,17 @@
         <v>110</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="27" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9085,7 +9653,7 @@
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -9123,10 +9691,10 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -9151,7 +9719,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>126</v>
@@ -9160,7 +9728,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -9169,7 +9737,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>130</v>
@@ -9178,16 +9746,16 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>130</v>
@@ -9196,16 +9764,16 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>130</v>
@@ -9214,25 +9782,25 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="E9" s="37">
         <v>5</v>
@@ -9241,7 +9809,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>130</v>
@@ -9250,18 +9818,18 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -9270,18 +9838,18 @@
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="48" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>144</v>
@@ -9290,18 +9858,18 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="E12" s="33">
         <v>0.5</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>126</v>
@@ -9310,7 +9878,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="E13" s="37">
         <v>5</v>
@@ -9319,7 +9887,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>144</v>
@@ -9328,7 +9896,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="E14" s="33">
         <v>0.5</v>
@@ -9337,7 +9905,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>144</v>
@@ -9346,7 +9914,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E15" s="33">
         <v>0.5</v>
@@ -9355,7 +9923,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>144</v>
@@ -9364,7 +9932,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="E16" s="33">
         <v>0.5</v>
@@ -9373,7 +9941,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>144</v>
@@ -9382,7 +9950,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="E17" s="33">
         <v>0.5</v>
@@ -9391,7 +9959,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>144</v>
@@ -9400,7 +9968,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E18" s="33">
         <v>0.5</v>
@@ -9409,7 +9977,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>144</v>
@@ -9418,7 +9986,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="E19" s="33">
         <v>0.5</v>
@@ -9427,7 +9995,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>144</v>
@@ -9436,7 +10004,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="E20" s="33">
         <v>0.5</v>
@@ -9445,7 +10013,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>144</v>
@@ -9454,7 +10022,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E21" s="33">
         <v>0.5</v>
@@ -9463,7 +10031,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>144</v>
@@ -9472,7 +10040,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E22" s="33">
         <v>0.5</v>
@@ -9481,7 +10049,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>144</v>
@@ -9490,7 +10058,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="E23" s="33">
         <v>0.5</v>
@@ -9499,7 +10067,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>144</v>
@@ -9508,7 +10076,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E24" s="33">
         <v>0.5</v>
@@ -9517,7 +10085,7 @@
     </row>
     <row r="25" spans="1:6" ht="23.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>144</v>
@@ -9526,7 +10094,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="E25" s="33">
         <v>0.5</v>
@@ -9535,7 +10103,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>144</v>
@@ -9544,7 +10112,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="E26" s="33">
         <v>0.5</v>
@@ -9596,19 +10164,19 @@
         <v>184</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="33">
@@ -9616,17 +10184,17 @@
         <v>110</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="31" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9697,7 +10265,7 @@
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="3" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -9708,26 +10276,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d258b355-8501-4acc-8349-f7fac8749b26">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003907DB3BD533EA4592ADB89EBC24DBC7" ma:contentTypeVersion="12" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="59fc32b7edad0eceffd4cc184ebefc5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d258b355-8501-4acc-8349-f7fac8749b26" xmlns:ns3="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="681167af73accc9101063aec098d62fc" ns2:_="" ns3:_="">
     <xsd:import namespace="d258b355-8501-4acc-8349-f7fac8749b26"/>
@@ -9928,32 +10476,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EFFF9F4-3B41-4225-8757-554607893B07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd"/>
-    <ds:schemaRef ds:uri="d258b355-8501-4acc-8349-f7fac8749b26"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ECE6D21-DFF9-44CD-AAD3-562308427691}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d258b355-8501-4acc-8349-f7fac8749b26">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57193AF9-69DA-410F-B232-6FBE18567FBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9970,4 +10513,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ECE6D21-DFF9-44CD-AAD3-562308427691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EFFF9F4-3B41-4225-8757-554607893B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd"/>
+    <ds:schemaRef ds:uri="d258b355-8501-4acc-8349-f7fac8749b26"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>